--- a/res/Unformatted/Basketball_Women_Maryland.xlsx
+++ b/res/Unformatted/Basketball_Women_Maryland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26115" windowHeight="9855"/>
+    <workbookView windowWidth="28200" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+  <si>
+    <t>2018-19 Women's Basketball Roster</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>POS.</t>
+  </si>
+  <si>
+    <t>HT.</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>HOMETOWN / HIGH SCHOOL</t>
+  </si>
   <si>
     <t>Shakira Austin</t>
   </si>
@@ -102,12 +123,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,18 +137,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF494949"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF494949"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,6 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -143,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +206,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,22 +221,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,47 +260,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,9 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +297,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -273,13 +312,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,13 +327,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5E5E5"/>
+        <fgColor rgb="FFCF102D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,175 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +598,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,25 +632,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,190 +668,178 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1140,226 +1161,259 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A1" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" ht="90.75" spans="1:6">
-      <c r="A1" s="1">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="79.5" spans="1:6">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
         <v>43256</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="79.5" spans="1:6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43228</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="75.75" spans="1:6">
-      <c r="A2" s="7">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="5" ht="79.5" spans="1:6">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="10">
-        <v>43228</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43252</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" ht="90.75" spans="1:6">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="6" ht="48" spans="1:6">
+      <c r="A6" s="3">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43231</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="63.75" spans="1:6">
+      <c r="A7" s="3">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9">
+        <v>36678</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="48" spans="1:6">
+      <c r="A8" s="3">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9">
+        <v>36678</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="79.5" spans="1:6">
+      <c r="A9" s="3">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43252</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D9" s="6">
+        <v>43253</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="79.5" spans="1:6">
+      <c r="A10" s="3">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43231</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="63.75" spans="1:6">
+      <c r="A11" s="3">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43254</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="79.5" spans="1:6">
+      <c r="A12" s="3">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43255</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="45.75" spans="1:6">
-      <c r="A4" s="1">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43231</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="60.75" spans="1:6">
-      <c r="A5" s="1">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13">
-        <v>36678</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="45.75" spans="1:6">
-      <c r="A6" s="1">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13">
-        <v>36678</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="90.75" spans="1:6">
-      <c r="A7" s="1">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43253</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="90.75" spans="1:6">
-      <c r="A8" s="1">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43231</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="60.75" spans="1:6">
-      <c r="A9" s="1">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43254</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="75.75" spans="1:6">
-      <c r="A10" s="1">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4">
-        <v>43255</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>26</v>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="Shakira Austin" tooltip="https://umterps.com/roster.aspx?rp_id=6446"/>
-    <hyperlink ref="B2" r:id="rId2" display="Channise Lewis" tooltip="https://umterps.com/roster.aspx?rp_id=5565"/>
-    <hyperlink ref="B3" r:id="rId3" display="Kaila Charles" tooltip="https://umterps.com/roster.aspx?rp_id=5559"/>
-    <hyperlink ref="B4" r:id="rId4" display="Taylor Mikesell" tooltip="https://umterps.com/roster.aspx?rp_id=6447"/>
-    <hyperlink ref="B5" r:id="rId5" display="Sarah Myers" tooltip="https://umterps.com/roster.aspx?rp_id=5567"/>
-    <hyperlink ref="B6" r:id="rId6" display="Blair Watson" tooltip="https://umterps.com/roster.aspx?rp_id=5568"/>
-    <hyperlink ref="B7" r:id="rId7" display="Stephanie Jones" tooltip="https://umterps.com/roster.aspx?rp_id=5564"/>
-    <hyperlink ref="B8" r:id="rId8" display="Sara Vujacic" tooltip="https://umterps.com/roster.aspx?rp_id=6449"/>
-    <hyperlink ref="B9" r:id="rId9" display="Brianna Fraser" tooltip="https://umterps.com/roster.aspx?rp_id=5562"/>
-    <hyperlink ref="B10" r:id="rId10" display="Olivia Owens" tooltip="https://umterps.com/roster.aspx?rp_id=6448"/>
+    <hyperlink ref="B3" r:id="rId1" display="Shakira Austin" tooltip="https://umterps.com/roster.aspx?rp_id=6446"/>
+    <hyperlink ref="B4" r:id="rId2" display="Channise Lewis" tooltip="https://umterps.com/roster.aspx?rp_id=5565"/>
+    <hyperlink ref="B5" r:id="rId3" display="Kaila Charles" tooltip="https://umterps.com/roster.aspx?rp_id=5559"/>
+    <hyperlink ref="B6" r:id="rId4" display="Taylor Mikesell" tooltip="https://umterps.com/roster.aspx?rp_id=6447"/>
+    <hyperlink ref="B7" r:id="rId5" display="Sarah Myers" tooltip="https://umterps.com/roster.aspx?rp_id=5567"/>
+    <hyperlink ref="B8" r:id="rId6" display="Blair Watson" tooltip="https://umterps.com/roster.aspx?rp_id=5568"/>
+    <hyperlink ref="B9" r:id="rId7" display="Stephanie Jones" tooltip="https://umterps.com/roster.aspx?rp_id=5564"/>
+    <hyperlink ref="B10" r:id="rId8" display="Sara Vujacic" tooltip="https://umterps.com/roster.aspx?rp_id=6449"/>
+    <hyperlink ref="B11" r:id="rId9" display="Brianna Fraser" tooltip="https://umterps.com/roster.aspx?rp_id=5562"/>
+    <hyperlink ref="B12" r:id="rId10" display="Olivia Owens" tooltip="https://umterps.com/roster.aspx?rp_id=6448"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
